--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha3F-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha3F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9928149941888518</v>
+        <v>0.9928149941888519</v>
       </c>
       <c r="D13">
         <v>0.9949863574415481</v>
@@ -958,7 +958,7 @@
         <v>0.9947052886848506</v>
       </c>
       <c r="F13">
-        <v>0.9928149941888518</v>
+        <v>0.9928149941888519</v>
       </c>
       <c r="G13">
         <v>0.9934784416931822</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9941805117985932</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.031533375272873</v>
+      </c>
+      <c r="D16">
+        <v>0.9183273690739626</v>
+      </c>
+      <c r="E16">
+        <v>1.008475206288345</v>
+      </c>
+      <c r="F16">
+        <v>1.031533375272873</v>
+      </c>
+      <c r="G16">
+        <v>0.9473117055122916</v>
+      </c>
+      <c r="H16">
+        <v>1.038744308907424</v>
+      </c>
+      <c r="I16">
+        <v>1.013762454306349</v>
+      </c>
+      <c r="J16">
+        <v>0.9183273690739626</v>
+      </c>
+      <c r="K16">
+        <v>0.9634012876811539</v>
+      </c>
+      <c r="L16">
+        <v>0.9974673314770136</v>
+      </c>
+      <c r="M16">
+        <v>0.9930257365602078</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.031533375272873</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9928149941888519</v>
+        <v>0.9928149941888518</v>
       </c>
       <c r="D13">
         <v>0.9949863574415481</v>
@@ -961,7 +961,7 @@
         <v>0.9947052886848506</v>
       </c>
       <c r="F13">
-        <v>0.9928149941888519</v>
+        <v>0.9928149941888518</v>
       </c>
       <c r="G13">
         <v>0.9934784416931822</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9542800000000012</v>
+        <v>1.031533375272873</v>
       </c>
       <c r="D10">
-        <v>0.8961880000000001</v>
+        <v>0.9183273690739626</v>
       </c>
       <c r="E10">
-        <v>1.054419999999999</v>
+        <v>1.008475206288345</v>
       </c>
       <c r="F10">
-        <v>0.9542800000000012</v>
+        <v>1.031533375272873</v>
       </c>
       <c r="G10">
-        <v>0.9202959999999999</v>
+        <v>0.9473117055122916</v>
       </c>
       <c r="H10">
-        <v>1.155904000000001</v>
+        <v>1.038744308907424</v>
       </c>
       <c r="I10">
-        <v>1.027356</v>
+        <v>1.013762454306349</v>
       </c>
       <c r="J10">
-        <v>0.8961880000000001</v>
+        <v>0.9183273690739626</v>
       </c>
       <c r="K10">
-        <v>0.9753039999999993</v>
+        <v>0.9634012876811539</v>
       </c>
       <c r="L10">
-        <v>0.9647920000000002</v>
+        <v>0.9974673314770136</v>
       </c>
       <c r="M10">
-        <v>1.001407333333334</v>
+        <v>0.9930257365602078</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.9486757638535821</v>
       </c>
       <c r="D11">
-        <v>0.66</v>
+        <v>0.9308341099036397</v>
       </c>
       <c r="E11">
-        <v>1.114299999999999</v>
+        <v>1.04435713571757</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9486757638535821</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.9236387522738029</v>
       </c>
       <c r="H11">
-        <v>1.3</v>
+        <v>1.165853963576787</v>
       </c>
       <c r="I11">
-        <v>1.09</v>
+        <v>1.016468887277038</v>
       </c>
       <c r="J11">
-        <v>0.66</v>
+        <v>0.9308341099036397</v>
       </c>
       <c r="K11">
-        <v>0.8871499999999994</v>
+        <v>0.9875956228106048</v>
       </c>
       <c r="L11">
-        <v>0.9435749999999998</v>
+        <v>0.9681356933320935</v>
       </c>
       <c r="M11">
-        <v>0.9940499999999998</v>
+        <v>1.004971435433737</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9980463069183974</v>
+        <v>0.9485100606339691</v>
       </c>
       <c r="D12">
-        <v>0.7996440047616012</v>
+        <v>0.9327026992368069</v>
       </c>
       <c r="E12">
-        <v>1.063877739110392</v>
+        <v>1.043709298156651</v>
       </c>
       <c r="F12">
-        <v>0.9980463069183974</v>
+        <v>0.9485100606339691</v>
       </c>
       <c r="G12">
-        <v>0.8815865060351997</v>
+        <v>0.924854684485083</v>
       </c>
       <c r="H12">
-        <v>1.170619099852799</v>
+        <v>1.164019313365911</v>
       </c>
       <c r="I12">
-        <v>1.048729296486398</v>
+        <v>1.015902408354741</v>
       </c>
       <c r="J12">
-        <v>0.7996440047616012</v>
+        <v>0.9327026992368069</v>
       </c>
       <c r="K12">
-        <v>0.9317608719359964</v>
+        <v>0.9882059986967289</v>
       </c>
       <c r="L12">
-        <v>0.9649035894271969</v>
+        <v>0.968358029665349</v>
       </c>
       <c r="M12">
-        <v>0.9937504921941311</v>
+        <v>1.00494974403886</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9928149941888518</v>
+        <v>0.9484805177774732</v>
       </c>
       <c r="D13">
-        <v>0.9949863574415481</v>
+        <v>0.9314055662718768</v>
       </c>
       <c r="E13">
-        <v>0.9947052886848506</v>
+        <v>1.044229379429764</v>
       </c>
       <c r="F13">
-        <v>0.9928149941888518</v>
+        <v>0.9484805177774732</v>
       </c>
       <c r="G13">
-        <v>0.9934784416931822</v>
+        <v>0.9239232877818482</v>
       </c>
       <c r="H13">
-        <v>0.9955900074459716</v>
+        <v>1.16561918463028</v>
       </c>
       <c r="I13">
-        <v>0.9942882193454705</v>
+        <v>1.016301734374657</v>
       </c>
       <c r="J13">
-        <v>0.9949863574415481</v>
+        <v>0.9314055662718768</v>
       </c>
       <c r="K13">
-        <v>0.9948458230631994</v>
+        <v>0.9878174728508202</v>
       </c>
       <c r="L13">
-        <v>0.9938304086260256</v>
+        <v>0.9681489953141468</v>
       </c>
       <c r="M13">
-        <v>0.9943105514666458</v>
+        <v>1.00499327837765</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.999380597217319</v>
+        <v>0.9542800000000012</v>
       </c>
       <c r="D14">
-        <v>1.002396640162602</v>
+        <v>0.8961880000000001</v>
       </c>
       <c r="E14">
-        <v>0.9884982858496604</v>
+        <v>1.054419999999999</v>
       </c>
       <c r="F14">
-        <v>0.999380597217319</v>
+        <v>0.9542800000000012</v>
       </c>
       <c r="G14">
-        <v>0.9990594747971785</v>
+        <v>0.9202959999999999</v>
       </c>
       <c r="H14">
-        <v>0.9790972836567882</v>
+        <v>1.155904000000001</v>
       </c>
       <c r="I14">
-        <v>0.9919349066976585</v>
+        <v>1.027356</v>
       </c>
       <c r="J14">
-        <v>1.002396640162602</v>
+        <v>0.8961880000000001</v>
       </c>
       <c r="K14">
-        <v>0.9954474630061314</v>
+        <v>0.9753039999999993</v>
       </c>
       <c r="L14">
-        <v>0.9974140301117251</v>
+        <v>0.9647920000000002</v>
       </c>
       <c r="M14">
-        <v>0.9933945313968677</v>
+        <v>1.001407333333334</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9864979897053711</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1.029237798317622</v>
+        <v>0.66</v>
       </c>
       <c r="E15">
-        <v>0.9850064625908554</v>
+        <v>1.114299999999999</v>
       </c>
       <c r="F15">
-        <v>0.9864979897053711</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.01581792504704</v>
+        <v>0.8</v>
       </c>
       <c r="H15">
-        <v>0.9645089886084285</v>
+        <v>1.3</v>
       </c>
       <c r="I15">
-        <v>0.9840139065222425</v>
+        <v>1.09</v>
       </c>
       <c r="J15">
-        <v>1.029237798317622</v>
+        <v>0.66</v>
       </c>
       <c r="K15">
-        <v>1.007122130454239</v>
+        <v>0.8871499999999994</v>
       </c>
       <c r="L15">
-        <v>0.9968100600798049</v>
+        <v>0.9435749999999998</v>
       </c>
       <c r="M15">
-        <v>0.9941805117985932</v>
+        <v>0.9940499999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.031533375272873</v>
+        <v>0.9980463069183974</v>
       </c>
       <c r="D16">
-        <v>0.9183273690739626</v>
+        <v>0.7996440047616012</v>
       </c>
       <c r="E16">
-        <v>1.008475206288345</v>
+        <v>1.063877739110392</v>
       </c>
       <c r="F16">
-        <v>1.031533375272873</v>
+        <v>0.9980463069183974</v>
       </c>
       <c r="G16">
-        <v>0.9473117055122916</v>
+        <v>0.8815865060351997</v>
       </c>
       <c r="H16">
-        <v>1.038744308907424</v>
+        <v>1.170619099852799</v>
       </c>
       <c r="I16">
-        <v>1.013762454306349</v>
+        <v>1.048729296486398</v>
       </c>
       <c r="J16">
-        <v>0.9183273690739626</v>
+        <v>0.7996440047616012</v>
       </c>
       <c r="K16">
-        <v>0.9634012876811539</v>
+        <v>0.9317608719359964</v>
       </c>
       <c r="L16">
-        <v>0.9974673314770136</v>
+        <v>0.9649035894271969</v>
       </c>
       <c r="M16">
-        <v>0.9930257365602078</v>
+        <v>0.9937504921941311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9928149941888519</v>
+      </c>
+      <c r="D17">
+        <v>0.9949863574415481</v>
+      </c>
+      <c r="E17">
+        <v>0.9947052886848506</v>
+      </c>
+      <c r="F17">
+        <v>0.9928149941888519</v>
+      </c>
+      <c r="G17">
+        <v>0.9934784416931822</v>
+      </c>
+      <c r="H17">
+        <v>0.9955900074459716</v>
+      </c>
+      <c r="I17">
+        <v>0.9942882193454705</v>
+      </c>
+      <c r="J17">
+        <v>0.9949863574415481</v>
+      </c>
+      <c r="K17">
+        <v>0.9948458230631994</v>
+      </c>
+      <c r="L17">
+        <v>0.9938304086260256</v>
+      </c>
+      <c r="M17">
+        <v>0.9943105514666458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.999380597217319</v>
+      </c>
+      <c r="D18">
+        <v>1.002396640162602</v>
+      </c>
+      <c r="E18">
+        <v>0.9884982858496604</v>
+      </c>
+      <c r="F18">
+        <v>0.999380597217319</v>
+      </c>
+      <c r="G18">
+        <v>0.9990594747971785</v>
+      </c>
+      <c r="H18">
+        <v>0.9790972836567882</v>
+      </c>
+      <c r="I18">
+        <v>0.9919349066976585</v>
+      </c>
+      <c r="J18">
+        <v>1.002396640162602</v>
+      </c>
+      <c r="K18">
+        <v>0.9954474630061314</v>
+      </c>
+      <c r="L18">
+        <v>0.9974140301117251</v>
+      </c>
+      <c r="M18">
+        <v>0.9933945313968677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9864979897053711</v>
+      </c>
+      <c r="D19">
+        <v>1.029237798317622</v>
+      </c>
+      <c r="E19">
+        <v>0.9850064625908554</v>
+      </c>
+      <c r="F19">
+        <v>0.9864979897053711</v>
+      </c>
+      <c r="G19">
+        <v>1.01581792504704</v>
+      </c>
+      <c r="H19">
+        <v>0.9645089886084285</v>
+      </c>
+      <c r="I19">
+        <v>0.9840139065222425</v>
+      </c>
+      <c r="J19">
+        <v>1.029237798317622</v>
+      </c>
+      <c r="K19">
+        <v>1.007122130454239</v>
+      </c>
+      <c r="L19">
+        <v>0.9968100600798049</v>
+      </c>
+      <c r="M19">
+        <v>0.9941805117985932</v>
       </c>
     </row>
   </sheetData>
